--- a/python/three/night3 noise=0.01 Error t1=6 t2=3 t3=2 δ1=0.4 δ2=0.1.xlsx
+++ b/python/three/night3 noise=0.01 Error t1=6 t2=3 t3=2 δ1=0.4 δ2=0.1.xlsx
@@ -476,10 +476,10 @@
         <v>4.74e-09</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>6.01</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0808</v>
+        <v>0.213</v>
       </c>
     </row>
     <row r="3">
@@ -498,10 +498,10 @@
         <v>0.000411</v>
       </c>
       <c r="E3" t="n">
-        <v>3.87</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>29</v>
+        <v>-66.7</v>
       </c>
     </row>
     <row r="4">
@@ -520,10 +520,10 @@
         <v>4.63e-05</v>
       </c>
       <c r="E4" t="n">
-        <v>1.19</v>
+        <v>3.29</v>
       </c>
       <c r="F4" t="n">
-        <v>-40.5</v>
+        <v>64.40000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -542,10 +542,10 @@
         <v>-3.64e-05</v>
       </c>
       <c r="E5" t="n">
-        <v>0.347</v>
+        <v>0.422</v>
       </c>
       <c r="F5" t="n">
-        <v>-13.3</v>
+        <v>5.62</v>
       </c>
     </row>
     <row r="6">
@@ -564,10 +564,10 @@
         <v>-0.000875</v>
       </c>
       <c r="E6" t="n">
-        <v>0.254</v>
+        <v>0.149</v>
       </c>
       <c r="F6" t="n">
-        <v>154</v>
+        <v>49.1</v>
       </c>
     </row>
     <row r="7">
@@ -586,10 +586,10 @@
         <v>4.39e-10</v>
       </c>
       <c r="E7" t="n">
-        <v>9.99e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.0526</v>
+        <v>0.142</v>
       </c>
     </row>
     <row r="8">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5710</v>
+        <v>9380</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>29.6</v>
+        <v>48.6</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>

--- a/python/three/night3 noise=0.01 Error t1=6 t2=3 t3=2 δ1=0.4 δ2=0.1.xlsx
+++ b/python/three/night3 noise=0.01 Error t1=6 t2=3 t3=2 δ1=0.4 δ2=0.1.xlsx
@@ -473,13 +473,13 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>4.74e-09</v>
+        <v>1.29e-08</v>
       </c>
       <c r="E2" t="n">
-        <v>6.01</v>
+        <v>5.99</v>
       </c>
       <c r="F2" t="n">
-        <v>0.213</v>
+        <v>-0.137</v>
       </c>
     </row>
     <row r="3">
@@ -495,13 +495,13 @@
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.000411</v>
+        <v>0.00106</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>2.47</v>
       </c>
       <c r="F3" t="n">
-        <v>-66.7</v>
+        <v>-17.6</v>
       </c>
     </row>
     <row r="4">
@@ -517,13 +517,13 @@
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>4.63e-05</v>
+        <v>0.00012</v>
       </c>
       <c r="E4" t="n">
-        <v>3.29</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>64.40000000000001</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="5">
@@ -539,13 +539,13 @@
         <v>0.4</v>
       </c>
       <c r="D5" t="n">
-        <v>-3.64e-05</v>
+        <v>-9.390000000000001e-05</v>
       </c>
       <c r="E5" t="n">
-        <v>0.422</v>
+        <v>0.423</v>
       </c>
       <c r="F5" t="n">
-        <v>5.62</v>
+        <v>5.83</v>
       </c>
     </row>
     <row r="6">
@@ -561,13 +561,13 @@
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.000875</v>
+        <v>-0.00226</v>
       </c>
       <c r="E6" t="n">
-        <v>0.149</v>
+        <v>0.185</v>
       </c>
       <c r="F6" t="n">
-        <v>49.1</v>
+        <v>85.40000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -583,13 +583,13 @@
         <v>0.0001</v>
       </c>
       <c r="D7" t="n">
-        <v>4.39e-10</v>
+        <v>1.44e-09</v>
       </c>
       <c r="E7" t="n">
         <v>0.0001</v>
       </c>
       <c r="F7" t="n">
-        <v>0.142</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="8">
@@ -605,7 +605,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>-5.27e-12</v>
+        <v>-5.95e-12</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -624,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1.84e-15</v>
+        <v>1.84e-14</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>9380</v>
+        <v>16400</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -650,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>9.549999999999999e-18</v>
+        <v>9.55e-17</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>48.6</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
